--- a/biology/Botanique/Aponogetonaceae/Aponogetonaceae.xlsx
+++ b/biology/Botanique/Aponogetonaceae/Aponogetonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aponogetonaceae (Aponogétonacées) sont une famille de plantes monocotylédones. Selon Watson &amp; Dallwitz, cette famille monogénérique comprend 47 espèces appartenant au genre Aponogeton.
 Ce sont des plantes herbacées aquatiques, pérennes, à racine épaissie ou rhizomateuses des zones subtropicales à tropicales. 
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Aponogeton composé du nom d'une source romaine, Aquae Aponi, près de Palua en Italie, lui-même venant des mots grec πονος (aponos, indolent, sans cœur) et γειτον, (geiton, voisin)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Aponogeton composé du nom d'une source romaine, Aquae Aponi, près de Palua en Italie, lui-même venant des mots grec πονος (aponos, indolent, sans cœur) et γειτον, (geiton, voisin).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis la classification phylogénétique APG II (2003)[2] cette famille est située dans l'ordre des Alismatales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la classification phylogénétique APG II (2003) cette famille est située dans l'ordre des Alismatales.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 avr. 2010)[3], Angiosperm Phylogeny Website                        (14 avr. 2010)[4], NCBI  (14 avr. 2010)[5], DELTA Angio           (14 avr. 2010)[6] et ITIS      (14 avr. 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 avr. 2010), Angiosperm Phylogeny Website                        (14 avr. 2010), NCBI  (14 avr. 2010), DELTA Angio           (14 avr. 2010) et ITIS      (14 avr. 2010) :
 genre Aponogeton L.f. (1782)</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 avr. 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 avr. 2010) :
 genre Aponogeton
 Aponogeton bullosus
 Aponogeton crispus
